--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -541,7 +541,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
